--- a/data/result/Article/Latex/analises.xlsx
+++ b/data/result/Article/Latex/analises.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="49">
   <si>
     <t>GA</t>
   </si>
@@ -127,6 +127,42 @@
   </si>
   <si>
     <t>BEST-SOLUTIONS</t>
+  </si>
+  <si>
+    <t>* SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ CPM </t>
+  </si>
+  <si>
+    <t>x MAR</t>
+  </si>
+  <si>
+    <t>For the largest instance, SH provides more solutions than any given independent run of NSGAII.</t>
+  </si>
+  <si>
+    <t>It also provides Pareto fronts with high HV and low GD, though not as high/low as NSGAII due</t>
+  </si>
+  <si>
+    <t>to the number of vertices provided in the latter's Pareto fronts. So, SH is a good approximation</t>
+  </si>
+  <si>
+    <t>of our results, particularly if large instances are considered. The good performance of SH can</t>
+  </si>
+  <si>
+    <t>in fact be explained by the error propagation and regeneration dynamics: when we concentarte</t>
+  </si>
+  <si>
+    <t>overtime in the latest activities, we suppress the snowball-growth of the extra amount of errors</t>
+  </si>
+  <si>
+    <t>introduced by tired developers working overtime during requirement analysis and design</t>
+  </si>
+  <si>
+    <t>activities, thus reducing the number of error reachin testing activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPM </t>
   </si>
 </sst>
 </file>
@@ -138,7 +174,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000;\-0.0000;\-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -192,7 +228,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -202,11 +238,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,18 +628,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -616,7 +651,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -644,8 +684,11 @@
       <c r="M3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AE3" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -679,8 +722,11 @@
       <c r="M4" s="4">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AE4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -715,7 +761,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -750,7 +796,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -785,7 +831,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -820,7 +866,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -855,12 +901,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -889,7 +935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -902,8 +948,8 @@
       <c r="D12" s="6">
         <v>0.3589</v>
       </c>
-      <c r="E12" s="6">
-        <v>6.6299999999999998E-2</v>
+      <c r="E12" s="10">
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
@@ -924,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -959,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -994,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1007,8 +1053,8 @@
       <c r="D15" s="6">
         <v>0.24249999999999999</v>
       </c>
-      <c r="E15" s="6">
-        <v>6.3500000000000001E-2</v>
+      <c r="E15" s="10">
+        <v>0</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
@@ -1029,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1077,8 +1123,8 @@
       <c r="D17" s="6">
         <v>0.3579</v>
       </c>
-      <c r="E17" s="6">
-        <v>4.9799999999999997E-2</v>
+      <c r="E17" s="10">
+        <v>0</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -1132,6 +1178,9 @@
       <c r="M19" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="O19" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1359,6 +1408,46 @@
       </c>
       <c r="O25" s="9">
         <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/result/Article/Latex/analises.xlsx
+++ b/data/result/Article/Latex/analises.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -255,6 +255,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -384,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,7 +422,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1461,27 +1464,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/result/Article/Latex/analises.xlsx
+++ b/data/result/Article/Latex/analises.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Plan1!$A$1:$AC$35</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="48">
   <si>
     <t>GA</t>
   </si>
@@ -124,9 +127,6 @@
   </si>
   <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>BEST-SOLUTIONS</t>
   </si>
   <si>
     <t>* SH</t>
@@ -267,14 +267,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>391584</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>105841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>12961</xdr:rowOff>
     </xdr:to>
@@ -293,8 +293,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10212917" y="105841"/>
-          <a:ext cx="7884583" cy="3145620"/>
+          <a:off x="9821334" y="105841"/>
+          <a:ext cx="7798593" cy="3145620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -305,14 +305,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>349251</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>129473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>575469</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>24007</xdr:rowOff>
     </xdr:to>
@@ -331,8 +331,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10170584" y="3558473"/>
-          <a:ext cx="7884583" cy="2561534"/>
+          <a:off x="9779001" y="3558473"/>
+          <a:ext cx="7798593" cy="2561534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -631,16 +631,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE35"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -650,16 +653,13 @@
       <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AE2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -687,11 +687,11 @@
       <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -725,11 +725,11 @@
       <c r="M4" s="4">
         <v>0.94</v>
       </c>
-      <c r="AE4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -764,7 +764,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -799,7 +799,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -834,7 +834,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -869,7 +869,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -904,12 +904,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -973,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>15</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1415,47 +1415,50 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="34" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1464,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/data/result/Article/Latex/analises.xlsx
+++ b/data/result/Article/Latex/analises.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Plan1!$A$1:$AC$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Plan1!$A$1:$N$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Plan3!$A$1:$L$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="75">
   <si>
     <t>GA</t>
   </si>
@@ -129,52 +130,131 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>* SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ CPM </t>
-  </si>
-  <si>
-    <t>x MAR</t>
-  </si>
-  <si>
-    <t>For the largest instance, SH provides more solutions than any given independent run of NSGAII.</t>
-  </si>
-  <si>
-    <t>It also provides Pareto fronts with high HV and low GD, though not as high/low as NSGAII due</t>
-  </si>
-  <si>
-    <t>to the number of vertices provided in the latter's Pareto fronts. So, SH is a good approximation</t>
-  </si>
-  <si>
-    <t>of our results, particularly if large instances are considered. The good performance of SH can</t>
-  </si>
-  <si>
-    <t>in fact be explained by the error propagation and regeneration dynamics: when we concentarte</t>
-  </si>
-  <si>
-    <t>overtime in the latest activities, we suppress the snowball-growth of the extra amount of errors</t>
-  </si>
-  <si>
-    <t>introduced by tired developers working overtime during requirement analysis and design</t>
-  </si>
-  <si>
-    <t>activities, thus reducing the number of error reachin testing activities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPM </t>
+    <t>NSGANE</t>
+  </si>
+  <si>
+    <t>NSGA</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>hv</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>0.0200 + 0.0036</t>
+  </si>
+  <si>
+    <t>0.0200 + 0.0113</t>
+  </si>
+  <si>
+    <t>0.3329 + 0.0009</t>
+  </si>
+  <si>
+    <t>0.5304 + 0.0064</t>
+  </si>
+  <si>
+    <t>0.0003 + 0.0001</t>
+  </si>
+  <si>
+    <t>0.0038 + 0.0009</t>
+  </si>
+  <si>
+    <t>0.0200 + 0.0033</t>
+  </si>
+  <si>
+    <t>0.0200 + 0.0115</t>
+  </si>
+  <si>
+    <t>0.3339 + 0.0010</t>
+  </si>
+  <si>
+    <t>0.5443 + 0.0036</t>
+  </si>
+  <si>
+    <t>0.0003 + 0.0000</t>
+  </si>
+  <si>
+    <t>0.0023 + 0.0003</t>
+  </si>
+  <si>
+    <t>0.0200 + 0.0028</t>
+  </si>
+  <si>
+    <t>0.0200 + 0.0096</t>
+  </si>
+  <si>
+    <t>0.3371 + 0.0006</t>
+  </si>
+  <si>
+    <t>0.4978 + 0.0026</t>
+  </si>
+  <si>
+    <t>0.0002 + 0.0000</t>
+  </si>
+  <si>
+    <t>0.0021 + 0.0003</t>
+  </si>
+  <si>
+    <t>0.0200 + 0.0019</t>
+  </si>
+  <si>
+    <t>0.0200 + 0.0111</t>
+  </si>
+  <si>
+    <t>0.3383 + 0.0004</t>
+  </si>
+  <si>
+    <t>0.4709 + 0.0064</t>
+  </si>
+  <si>
+    <t>0.0001 + 0.0000</t>
+  </si>
+  <si>
+    <t>0.0040 + 0.0010</t>
+  </si>
+  <si>
+    <t>0.0200 + 0.0026</t>
+  </si>
+  <si>
+    <t>0.3366 + 0.0009</t>
+  </si>
+  <si>
+    <t>0.5227 + 0.0040</t>
+  </si>
+  <si>
+    <t>0.0024 + 0.0002</t>
+  </si>
+  <si>
+    <t>0.0200 + 0.0030</t>
+  </si>
+  <si>
+    <t>0.0200 + 0.0175</t>
+  </si>
+  <si>
+    <t>0.3376 + 0.0014</t>
+  </si>
+  <si>
+    <t>0.4616 + 0.0068</t>
+  </si>
+  <si>
+    <t>0.0064 + 0.0012</t>
+  </si>
+  <si>
+    <t>ES (NSGA melhor NSGANE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000;\-0.0000;\-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -223,12 +303,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -238,17 +317,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
-    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -267,16 +344,59 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>105834</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>105841</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12961</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>154975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5022941"/>
+          <a:ext cx="7798593" cy="2561534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -293,46 +413,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9821334" y="105841"/>
+          <a:off x="200025" y="1647825"/>
           <a:ext cx="7798593" cy="3145620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>129473</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>575469</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>24007</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9779001" y="3558473"/>
-          <a:ext cx="7798593" cy="2561534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -387,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,7 +504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,16 +716,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="15" max="15" width="9.140625" style="9"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -654,12 +733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -687,11 +761,8 @@
       <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -725,11 +796,8 @@
       <c r="M4" s="4">
         <v>0.94</v>
       </c>
-      <c r="AC4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -764,7 +832,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -799,7 +867,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -834,7 +902,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -869,7 +937,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -904,12 +972,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -938,7 +1006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -951,7 +1019,7 @@
       <c r="D12" s="6">
         <v>0.3589</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="G12" t="s">
@@ -973,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1124,7 @@
       <c r="D15" s="6">
         <v>0.24249999999999999</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>0</v>
       </c>
       <c r="G15" t="s">
@@ -1078,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -1126,7 +1194,7 @@
       <c r="D17" s="6">
         <v>0.3579</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>0</v>
       </c>
       <c r="G17" t="s">
@@ -1148,12 +1216,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1181,11 +1249,8 @@
       <c r="M19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1198,7 +1263,7 @@
       <c r="D20" s="2">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="G20" t="s">
@@ -1216,14 +1281,11 @@
       <c r="L20" s="4">
         <v>1</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1257,11 +1319,8 @@
       <c r="M21" s="4">
         <v>1</v>
       </c>
-      <c r="O21" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1295,11 +1354,8 @@
       <c r="M22" s="4">
         <v>1</v>
       </c>
-      <c r="O22" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1368,7 @@
       <c r="D23" s="2">
         <v>0.15770000000000001</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>0</v>
       </c>
       <c r="G23" t="s">
@@ -1330,14 +1386,11 @@
       <c r="L23" s="4">
         <v>1</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1371,11 +1424,8 @@
       <c r="M24" s="4">
         <v>1</v>
       </c>
-      <c r="O24" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1388,7 +1438,7 @@
       <c r="D25" s="2">
         <v>1.72E-2</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>0</v>
       </c>
       <c r="G25" t="s">
@@ -1406,51 +1456,8 @@
       <c r="L25" s="4">
         <v>1</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="O25" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3498,12 +3505,274 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="2" max="7" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.42120000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.43919999999999998</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.37919999999999998</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.42059999999999997</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.44319999999999998</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.43120000000000003</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/result/Article/Latex/analises.xlsx
+++ b/data/result/Article/Latex/analises.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Plan1!$A$1:$N$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Plan3!$A$1:$L$26</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -322,6 +322,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +505,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1474,7 +1475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1811,6 +1814,14 @@
         <f t="shared" si="1"/>
         <v>-3.5532741509262222E-2</v>
       </c>
+      <c r="M10" s="12">
+        <f>C10*8</f>
+        <v>334.16735999999997</v>
+      </c>
+      <c r="N10" s="12">
+        <f>D10*8</f>
+        <v>374.17487999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J11" s="7"/>
@@ -1986,7 +1997,7 @@
         <v>-1.6243943024724095E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2020,7 +2031,7 @@
         <v>-3.7646581332213547E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2065,7 @@
         <v>-1.1490504213448549E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2088,7 +2099,7 @@
         <v>-2.341403367228434E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2122,7 +2133,7 @@
         <v>-4.0779368391932969E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2155,12 +2166,20 @@
         <f t="shared" si="1"/>
         <v>-6.4464155564229575E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="12">
+        <f>C21*8</f>
+        <v>374.10424</v>
+      </c>
+      <c r="N21" s="12">
+        <f>D21*8</f>
+        <v>414.3304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2194,7 +2213,7 @@
         <v>-1.8948448395992301E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2228,7 +2247,7 @@
         <v>-1.5087813331903233E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2262,7 +2281,7 @@
         <v>-1.539904321066099E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2296,7 +2315,7 @@
         <v>-1.7430286444886089E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2330,7 +2349,7 @@
         <v>-2.9460016780809006E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2364,7 +2383,7 @@
         <v>-5.2838842399751673E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2398,7 +2417,7 @@
         <v>-1.1194544601942913E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2432,7 +2451,7 @@
         <v>-2.4886304159124184E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2466,7 +2485,7 @@
         <v>-4.0645890346219016E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2499,12 +2518,20 @@
         <f t="shared" si="1"/>
         <v>-5.8587626529517767E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M32" s="12">
+        <f>C32*8</f>
+        <v>637.72472000000005</v>
+      </c>
+      <c r="N32" s="12">
+        <f>D32*8</f>
+        <v>704.67359999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2538,7 +2565,7 @@
         <v>-6.1732555414736323E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2572,7 +2599,7 @@
         <v>-3.9071433775030862E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2606,7 +2633,7 @@
         <v>-4.2094107196990471E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2640,7 +2667,7 @@
         <v>-4.0503307661982069E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2674,7 +2701,7 @@
         <v>-4.6548318902359664E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2708,7 +2735,7 @@
         <v>-5.6035396165983187E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2742,7 +2769,7 @@
         <v>-6.2236839839533431E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2776,7 +2803,7 @@
         <v>-1.0169642203005536E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2810,7 +2837,7 @@
         <v>-1.394767301655897E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2843,12 +2870,20 @@
         <f t="shared" si="1"/>
         <v>-2.5893568823342261E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M43" s="12">
+        <f>C43*8</f>
+        <v>1444.5704000000001</v>
+      </c>
+      <c r="N43" s="12">
+        <f>D43*8</f>
+        <v>1598.6232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2882,7 +2917,7 @@
         <v>-4.4160209287017471E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2916,7 +2951,7 @@
         <v>-4.1994020338642635E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2950,7 +2985,7 @@
         <v>-4.2327954216002661E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2984,7 +3019,7 @@
         <v>-4.5962011532495461E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -3018,7 +3053,7 @@
         <v>-6.0853287776527765E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -3052,7 +3087,7 @@
         <v>-1.2200967523081974E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3086,7 +3121,7 @@
         <v>-1.9033838571257733E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3120,7 +3155,7 @@
         <v>-3.3981525261753132E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -3154,7 +3189,7 @@
         <v>-5.2637455521754584E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -3187,12 +3222,20 @@
         <f t="shared" si="1"/>
         <v>-6.9131855041038692E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M54" s="12">
+        <f>C54*8</f>
+        <v>1041.66848</v>
+      </c>
+      <c r="N54" s="12">
+        <f>D54*8</f>
+        <v>1148.2384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3226,7 +3269,7 @@
         <v>-1.0072800990580832E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3260,7 +3303,7 @@
         <v>-7.7917660929986976E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -3294,7 +3337,7 @@
         <v>-7.6873364225085172E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -3328,7 +3371,7 @@
         <v>-8.0355426082588943E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3362,7 +3405,7 @@
         <v>-1.1171326631701728E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3396,7 +3439,7 @@
         <v>-1.5394367873708514E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -3430,7 +3473,7 @@
         <v>-2.073633018344978E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -3464,7 +3507,7 @@
         <v>-3.7255773618932397E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3496,6 +3539,14 @@
       <c r="K64" s="7">
         <f t="shared" si="1"/>
         <v>-5.515547200974602E-2</v>
+      </c>
+      <c r="M64" s="12">
+        <f>C64*8</f>
+        <v>792.36815999999999</v>
+      </c>
+      <c r="N64" s="12">
+        <f>D64*8</f>
+        <v>881.79567999999995</v>
       </c>
     </row>
   </sheetData>
@@ -3510,7 +3561,7 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
